--- a/resources/testdata/UserSearchTestCase.xlsx
+++ b/resources/testdata/UserSearchTestCase.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="searchLoginName" sheetId="2" r:id="rId2"/>
-    <sheet name="searchFirstName" sheetId="3" r:id="rId3"/>
-    <sheet name="searchLastName" sheetId="4" r:id="rId4"/>
-    <sheet name="searchEmail" sheetId="5" r:id="rId5"/>
-    <sheet name="searchAll" sheetId="6" r:id="rId6"/>
-    <sheet name="testResetWithAllData" sheetId="7" r:id="rId7"/>
+    <sheet name="lookforUser" sheetId="8" r:id="rId2"/>
+    <sheet name="searchLoginName" sheetId="2" r:id="rId3"/>
+    <sheet name="searchFirstName" sheetId="3" r:id="rId4"/>
+    <sheet name="searchLastName" sheetId="4" r:id="rId5"/>
+    <sheet name="searchEmail" sheetId="5" r:id="rId6"/>
+    <sheet name="searchAll" sheetId="6" r:id="rId7"/>
+    <sheet name="testResetWithAllData" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="27">
   <si>
     <t>TCID</t>
   </si>
@@ -95,6 +96,12 @@
   </si>
   <si>
     <t>Deactivate</t>
+  </si>
+  <si>
+    <t>shortLoginName</t>
+  </si>
+  <si>
+    <t>autotestuser1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +453,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +540,68 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +615,7 @@
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -569,8 +637,11 @@
       <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -591,6 +662,9 @@
       </c>
       <c r="G2" t="s">
         <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -659,7 +733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -720,7 +794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -781,7 +855,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -840,65 +985,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/testdata/UserSearchTestCase.xlsx
+++ b/resources/testdata/UserSearchTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
   <si>
     <t>TCID</t>
   </si>
@@ -80,18 +80,12 @@
     <t>email</t>
   </si>
   <si>
-    <t>autotestuser1@10000.escm.local</t>
-  </si>
-  <si>
     <t>autoTestF1</t>
   </si>
   <si>
     <t>autoTestL1</t>
   </si>
   <si>
-    <t>ensimautotest@outlook.com</t>
-  </si>
-  <si>
     <t>buttonStatus</t>
   </si>
   <si>
@@ -102,16 +96,30 @@
   </si>
   <si>
     <t>autotestuser1</t>
+  </si>
+  <si>
+    <t>autotestuser1@test.domain</t>
+  </si>
+  <si>
+    <t>automat@ensim.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,14 +148,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,10 +551,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -565,7 +583,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -575,23 +593,27 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -600,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,6 +635,7 @@
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -635,10 +658,10 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -648,26 +671,30 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -677,10 +704,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -702,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -712,23 +746,27 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -738,10 +776,16 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -763,7 +807,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -773,23 +817,27 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -799,10 +847,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -824,7 +876,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -834,23 +886,27 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -860,7 +916,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,11 +945,9 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -902,26 +956,27 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -930,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +1011,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -966,23 +1021,27 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>